--- a/team_specific_matrix/Hawaii_B.xlsx
+++ b/team_specific_matrix/Hawaii_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1696428571428572</v>
+        <v>0.1653846153846154</v>
       </c>
       <c r="C2">
-        <v>0.625</v>
+        <v>0.6230769230769231</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.003846153846153846</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1116071428571429</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09375</v>
+        <v>0.09230769230769231</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.01183431952662722</v>
       </c>
       <c r="C3">
-        <v>0.05442176870748299</v>
+        <v>0.04733727810650887</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.006802721088435374</v>
+        <v>0.01183431952662722</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7074829931972789</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2312925170068027</v>
+        <v>0.2366863905325444</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03846153846153846</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.01923076923076923</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="P4">
-        <v>0.6923076923076923</v>
+        <v>0.6949152542372882</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.25</v>
+        <v>0.2542372881355932</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06321839080459771</v>
+        <v>0.06930693069306931</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01724137931034483</v>
+        <v>0.02475247524752475</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.08620689655172414</v>
+        <v>0.08415841584158416</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2873563218390804</v>
+        <v>0.2722772277227723</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01149425287356322</v>
+        <v>0.009900990099009901</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2068965517241379</v>
+        <v>0.202970297029703</v>
       </c>
       <c r="R6">
-        <v>0.03448275862068965</v>
+        <v>0.03465346534653466</v>
       </c>
       <c r="S6">
-        <v>0.293103448275862</v>
+        <v>0.301980198019802</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.13125</v>
+        <v>0.1348314606741573</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04375</v>
+        <v>0.0449438202247191</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04375</v>
+        <v>0.0449438202247191</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.06875000000000001</v>
+        <v>0.06741573033707865</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.025</v>
+        <v>0.02808988764044944</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.19375</v>
+        <v>0.1910112359550562</v>
       </c>
       <c r="R7">
-        <v>0.075</v>
+        <v>0.06741573033707865</v>
       </c>
       <c r="S7">
-        <v>0.41875</v>
+        <v>0.4213483146067415</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09803921568627451</v>
+        <v>0.09631728045325778</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0196078431372549</v>
+        <v>0.0198300283286119</v>
       </c>
       <c r="E8">
-        <v>0.00326797385620915</v>
+        <v>0.0028328611898017</v>
       </c>
       <c r="F8">
-        <v>0.06862745098039216</v>
+        <v>0.07082152974504249</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.107843137254902</v>
+        <v>0.1019830028328612</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03267973856209151</v>
+        <v>0.03682719546742209</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2549019607843137</v>
+        <v>0.2436260623229462</v>
       </c>
       <c r="R8">
-        <v>0.06862745098039216</v>
+        <v>0.06515580736543909</v>
       </c>
       <c r="S8">
-        <v>0.3464052287581699</v>
+        <v>0.3626062322946176</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1025641025641026</v>
+        <v>0.106145251396648</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01282051282051282</v>
+        <v>0.01675977653631285</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04487179487179487</v>
+        <v>0.03910614525139665</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07692307692307693</v>
+        <v>0.0782122905027933</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01282051282051282</v>
+        <v>0.0223463687150838</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2115384615384615</v>
+        <v>0.2290502793296089</v>
       </c>
       <c r="R9">
-        <v>0.0641025641025641</v>
+        <v>0.05586592178770949</v>
       </c>
       <c r="S9">
-        <v>0.4743589743589743</v>
+        <v>0.4525139664804469</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1233333333333333</v>
+        <v>0.1251212415130941</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.04</v>
+        <v>0.03685741998060136</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.0009699321047526673</v>
       </c>
       <c r="F10">
-        <v>0.07000000000000001</v>
+        <v>0.07177497575169738</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1088888888888889</v>
+        <v>0.1086323957322987</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02555555555555556</v>
+        <v>0.02715809893307469</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2077777777777778</v>
+        <v>0.2172647914645975</v>
       </c>
       <c r="R10">
-        <v>0.05222222222222223</v>
+        <v>0.0504364694471387</v>
       </c>
       <c r="S10">
-        <v>0.3722222222222222</v>
+        <v>0.3617846750727449</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.144</v>
+        <v>0.1454545454545454</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.076</v>
+        <v>0.07636363636363637</v>
       </c>
       <c r="K11">
-        <v>0.196</v>
+        <v>0.1890909090909091</v>
       </c>
       <c r="L11">
-        <v>0.576</v>
+        <v>0.5781818181818181</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.008</v>
+        <v>0.01090909090909091</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7364864864864865</v>
+        <v>0.7378048780487805</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2094594594594595</v>
+        <v>0.2134146341463415</v>
       </c>
       <c r="K12">
-        <v>0.006756756756756757</v>
+        <v>0.006097560975609756</v>
       </c>
       <c r="L12">
-        <v>0.01351351351351351</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03378378378378379</v>
+        <v>0.03048780487804878</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5641025641025641</v>
+        <v>0.5681818181818182</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3846153846153846</v>
+        <v>0.3863636363636364</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.05128205128205128</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02259887005649718</v>
+        <v>0.0187793427230047</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1073446327683616</v>
+        <v>0.1032863849765258</v>
       </c>
       <c r="I15">
-        <v>0.07344632768361582</v>
+        <v>0.07981220657276995</v>
       </c>
       <c r="J15">
-        <v>0.3446327683615819</v>
+        <v>0.3427230046948357</v>
       </c>
       <c r="K15">
-        <v>0.0847457627118644</v>
+        <v>0.07981220657276995</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01129943502824859</v>
+        <v>0.0187793427230047</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.0903954802259887</v>
+        <v>0.1032863849765258</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2655367231638418</v>
+        <v>0.2535211267605634</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0245398773006135</v>
+        <v>0.02717391304347826</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1595092024539877</v>
+        <v>0.1521739130434783</v>
       </c>
       <c r="I16">
-        <v>0.09202453987730061</v>
+        <v>0.09782608695652174</v>
       </c>
       <c r="J16">
-        <v>0.4110429447852761</v>
+        <v>0.4076086956521739</v>
       </c>
       <c r="K16">
-        <v>0.147239263803681</v>
+        <v>0.1413043478260869</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0245398773006135</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05521472392638037</v>
+        <v>0.05434782608695652</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.08588957055214724</v>
+        <v>0.09782608695652174</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.03047091412742382</v>
+        <v>0.03080568720379147</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1662049861495845</v>
+        <v>0.1729857819905213</v>
       </c>
       <c r="I17">
-        <v>0.1052631578947368</v>
+        <v>0.1018957345971564</v>
       </c>
       <c r="J17">
-        <v>0.3795013850415512</v>
+        <v>0.3862559241706161</v>
       </c>
       <c r="K17">
-        <v>0.1301939058171745</v>
+        <v>0.1303317535545024</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02493074792243767</v>
+        <v>0.02606635071090047</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06094182825484765</v>
+        <v>0.06398104265402843</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1024930747922438</v>
+        <v>0.08767772511848342</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,28 +1460,28 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.08333333333333333</v>
+        <v>0.09615384615384616</v>
       </c>
       <c r="I18">
-        <v>0.1041666666666667</v>
+        <v>0.09615384615384616</v>
       </c>
       <c r="J18">
-        <v>0.4270833333333333</v>
+        <v>0.4423076923076923</v>
       </c>
       <c r="K18">
-        <v>0.1145833333333333</v>
+        <v>0.1057692307692308</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.03125</v>
+        <v>0.02884615384615385</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.09375</v>
+        <v>0.08653846153846154</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1458333333333333</v>
+        <v>0.1442307692307692</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01876379690949227</v>
+        <v>0.01945525291828794</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2163355408388521</v>
+        <v>0.2159533073929961</v>
       </c>
       <c r="I19">
-        <v>0.08830022075055188</v>
+        <v>0.08657587548638132</v>
       </c>
       <c r="J19">
-        <v>0.3675496688741722</v>
+        <v>0.3706225680933852</v>
       </c>
       <c r="K19">
-        <v>0.1114790286975717</v>
+        <v>0.1079766536964981</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02317880794701987</v>
+        <v>0.02140077821011673</v>
       </c>
       <c r="N19">
-        <v>0.001103752759381898</v>
+        <v>0.0009727626459143969</v>
       </c>
       <c r="O19">
-        <v>0.0673289183222958</v>
+        <v>0.06906614785992218</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1059602649006623</v>
+        <v>0.1079766536964981</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Hawaii_B.xlsx
+++ b/team_specific_matrix/Hawaii_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1653846153846154</v>
+        <v>0.1641221374045801</v>
       </c>
       <c r="C2">
-        <v>0.6230769230769231</v>
+        <v>0.6221374045801527</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.003846153846153846</v>
+        <v>0.007633587786259542</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1153846153846154</v>
+        <v>0.1145038167938931</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09230769230769231</v>
+        <v>0.0916030534351145</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01183431952662722</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="C3">
-        <v>0.04733727810650887</v>
+        <v>0.04705882352941176</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01183431952662722</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6923076923076923</v>
+        <v>0.6941176470588235</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2366863905325444</v>
+        <v>0.2352941176470588</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03389830508474576</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.01694915254237288</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="P4">
-        <v>0.6949152542372882</v>
+        <v>0.7049180327868853</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2542372881355932</v>
+        <v>0.2459016393442623</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06930693069306931</v>
+        <v>0.0660377358490566</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02475247524752475</v>
+        <v>0.02358490566037736</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.08415841584158416</v>
+        <v>0.08490566037735849</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2722772277227723</v>
+        <v>0.2735849056603774</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.009900990099009901</v>
+        <v>0.01415094339622642</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.202970297029703</v>
+        <v>0.1981132075471698</v>
       </c>
       <c r="R6">
-        <v>0.03465346534653466</v>
+        <v>0.0330188679245283</v>
       </c>
       <c r="S6">
-        <v>0.301980198019802</v>
+        <v>0.3066037735849056</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1348314606741573</v>
+        <v>0.1344086021505376</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0449438202247191</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.005376344086021506</v>
       </c>
       <c r="F7">
-        <v>0.0449438202247191</v>
+        <v>0.04838709677419355</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.06741573033707865</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02808988764044944</v>
+        <v>0.02688172043010753</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1910112359550562</v>
+        <v>0.1827956989247312</v>
       </c>
       <c r="R7">
-        <v>0.06741573033707865</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="S7">
-        <v>0.4213483146067415</v>
+        <v>0.4301075268817204</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09631728045325778</v>
+        <v>0.09264305177111716</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0198300283286119</v>
+        <v>0.01907356948228883</v>
       </c>
       <c r="E8">
-        <v>0.0028328611898017</v>
+        <v>0.002724795640326975</v>
       </c>
       <c r="F8">
-        <v>0.07082152974504249</v>
+        <v>0.07356948228882834</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1019830028328612</v>
+        <v>0.1035422343324251</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03682719546742209</v>
+        <v>0.03542234332425068</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2436260623229462</v>
+        <v>0.2397820163487738</v>
       </c>
       <c r="R8">
-        <v>0.06515580736543909</v>
+        <v>0.06267029972752043</v>
       </c>
       <c r="S8">
-        <v>0.3626062322946176</v>
+        <v>0.3705722070844686</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.106145251396648</v>
+        <v>0.1016042780748663</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01675977653631285</v>
+        <v>0.0160427807486631</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.03910614525139665</v>
+        <v>0.0374331550802139</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0782122905027933</v>
+        <v>0.08021390374331551</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0223463687150838</v>
+        <v>0.0213903743315508</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2290502793296089</v>
+        <v>0.2406417112299465</v>
       </c>
       <c r="R9">
-        <v>0.05586592178770949</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="S9">
-        <v>0.4525139664804469</v>
+        <v>0.4438502673796791</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1251212415130941</v>
+        <v>0.1200369344413666</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03685741998060136</v>
+        <v>0.03785780240073869</v>
       </c>
       <c r="E10">
-        <v>0.0009699321047526673</v>
+        <v>0.0009233610341643582</v>
       </c>
       <c r="F10">
-        <v>0.07177497575169738</v>
+        <v>0.07017543859649122</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1086323957322987</v>
+        <v>0.1089566020313943</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02715809893307469</v>
+        <v>0.02862419205909511</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2172647914645975</v>
+        <v>0.221606648199446</v>
       </c>
       <c r="R10">
-        <v>0.0504364694471387</v>
+        <v>0.04986149584487535</v>
       </c>
       <c r="S10">
-        <v>0.3617846750727449</v>
+        <v>0.3619575253924284</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1454545454545454</v>
+        <v>0.1517241379310345</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07636363636363637</v>
+        <v>0.07931034482758621</v>
       </c>
       <c r="K11">
-        <v>0.1890909090909091</v>
+        <v>0.1862068965517241</v>
       </c>
       <c r="L11">
-        <v>0.5781818181818181</v>
+        <v>0.5724137931034483</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01090909090909091</v>
+        <v>0.0103448275862069</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7378048780487805</v>
+        <v>0.7251461988304093</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2134146341463415</v>
+        <v>0.2163742690058479</v>
       </c>
       <c r="K12">
-        <v>0.006097560975609756</v>
+        <v>0.005847953216374269</v>
       </c>
       <c r="L12">
-        <v>0.01219512195121951</v>
+        <v>0.01169590643274854</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03048780487804878</v>
+        <v>0.04093567251461988</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5681818181818182</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3863636363636364</v>
+        <v>0.3695652173913043</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04545454545454546</v>
+        <v>0.06521739130434782</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0187793427230047</v>
+        <v>0.02202643171806168</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1032863849765258</v>
+        <v>0.09691629955947137</v>
       </c>
       <c r="I15">
-        <v>0.07981220657276995</v>
+        <v>0.07929515418502203</v>
       </c>
       <c r="J15">
-        <v>0.3427230046948357</v>
+        <v>0.3436123348017621</v>
       </c>
       <c r="K15">
-        <v>0.07981220657276995</v>
+        <v>0.07929515418502203</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0187793427230047</v>
+        <v>0.01762114537444934</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.1032863849765258</v>
+        <v>0.1013215859030837</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2535211267605634</v>
+        <v>0.2599118942731278</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02717391304347826</v>
+        <v>0.0267379679144385</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1521739130434783</v>
+        <v>0.1550802139037433</v>
       </c>
       <c r="I16">
-        <v>0.09782608695652174</v>
+        <v>0.09625668449197861</v>
       </c>
       <c r="J16">
-        <v>0.4076086956521739</v>
+        <v>0.4064171122994653</v>
       </c>
       <c r="K16">
-        <v>0.1413043478260869</v>
+        <v>0.1390374331550802</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02173913043478261</v>
+        <v>0.0267379679144385</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05434782608695652</v>
+        <v>0.053475935828877</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.09782608695652174</v>
+        <v>0.09625668449197861</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.03080568720379147</v>
+        <v>0.02921348314606742</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1729857819905213</v>
+        <v>0.1730337078651685</v>
       </c>
       <c r="I17">
-        <v>0.1018957345971564</v>
+        <v>0.09887640449438202</v>
       </c>
       <c r="J17">
-        <v>0.3862559241706161</v>
+        <v>0.3887640449438202</v>
       </c>
       <c r="K17">
-        <v>0.1303317535545024</v>
+        <v>0.1303370786516854</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02606635071090047</v>
+        <v>0.02471910112359551</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06398104265402843</v>
+        <v>0.0651685393258427</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.08767772511848342</v>
+        <v>0.0898876404494382</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,28 +1460,28 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.09615384615384616</v>
+        <v>0.09345794392523364</v>
       </c>
       <c r="I18">
-        <v>0.09615384615384616</v>
+        <v>0.102803738317757</v>
       </c>
       <c r="J18">
-        <v>0.4423076923076923</v>
+        <v>0.4392523364485981</v>
       </c>
       <c r="K18">
-        <v>0.1057692307692308</v>
+        <v>0.102803738317757</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02884615384615385</v>
+        <v>0.02803738317757009</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.08653846153846154</v>
+        <v>0.08411214953271028</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1442307692307692</v>
+        <v>0.1495327102803738</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01945525291828794</v>
+        <v>0.02033271719038817</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2159533073929961</v>
+        <v>0.2134935304990758</v>
       </c>
       <c r="I19">
-        <v>0.08657587548638132</v>
+        <v>0.08687615526802218</v>
       </c>
       <c r="J19">
-        <v>0.3706225680933852</v>
+        <v>0.3696857670979667</v>
       </c>
       <c r="K19">
-        <v>0.1079766536964981</v>
+        <v>0.1090573012939002</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02140077821011673</v>
+        <v>0.02125693160813309</v>
       </c>
       <c r="N19">
-        <v>0.0009727626459143969</v>
+        <v>0.0009242144177449168</v>
       </c>
       <c r="O19">
-        <v>0.06906614785992218</v>
+        <v>0.07116451016635859</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1079766536964981</v>
+        <v>0.1072088724584103</v>
       </c>
     </row>
   </sheetData>
